--- a/arquivos gerais/Sigla__Curso.xlsx
+++ b/arquivos gerais/Sigla__Curso.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="14052" yWindow="3312" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$22</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Sigla</t>
   </si>
@@ -51,12 +54,6 @@
     <t xml:space="preserve"> Bacharelado em Matemática</t>
   </si>
   <si>
-    <t xml:space="preserve">LM </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Licenciatura em Matemática</t>
-  </si>
-  <si>
     <t xml:space="preserve">BN </t>
   </si>
   <si>
@@ -129,36 +126,12 @@
     <t xml:space="preserve"> Bacharelado em Química</t>
   </si>
   <si>
-    <t xml:space="preserve">LCB </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Licenciatura em Ciências Biológicas</t>
-  </si>
-  <si>
     <t xml:space="preserve">BFIL </t>
   </si>
   <si>
     <t xml:space="preserve"> Bacharelado em Filosofia</t>
   </si>
   <si>
-    <t xml:space="preserve">LFIL </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Licenciatura em Filosofia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LFIS </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Licenciatura em Física</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQ </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Licenciatura em Química</t>
-  </si>
-  <si>
     <t xml:space="preserve">BCB </t>
   </si>
   <si>
@@ -183,22 +156,19 @@
     <t xml:space="preserve"> Bacharelado em Ciências e Humanidades</t>
   </si>
   <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>BI</t>
-  </si>
-  <si>
-    <t>BI anterior</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>BC&amp;H</t>
+    <t>Limitada</t>
+  </si>
+  <si>
+    <t>Livre</t>
+  </si>
+  <si>
+    <t>Obrigatorio</t>
+  </si>
+  <si>
+    <t>ObrigatorioBI</t>
+  </si>
+  <si>
+    <t>Creditos</t>
   </si>
 </sst>
 </file>
@@ -260,23 +230,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,7 +544,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -591,412 +552,555 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>90</v>
+      </c>
+      <c r="E2">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="F2">
+        <v>43</v>
+      </c>
+      <c r="G2">
+        <f>SUM(C2:F2)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>90</v>
+      </c>
+      <c r="D3">
+        <v>124</v>
+      </c>
+      <c r="E3">
+        <v>36</v>
+      </c>
+      <c r="F3" s="5">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G21" si="0">SUM(C3:F3)</f>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>90</v>
+      </c>
+      <c r="D4">
+        <v>124</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>71</v>
+      </c>
+      <c r="E5">
+        <v>81</v>
+      </c>
+      <c r="F5" s="5">
+        <v>38</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>71</v>
+      </c>
+      <c r="D6">
+        <v>132</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>71</v>
+      </c>
+      <c r="D7">
+        <v>88</v>
+      </c>
+      <c r="E7">
+        <v>44</v>
+      </c>
+      <c r="F7" s="5">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>90</v>
+      </c>
+      <c r="D8">
+        <v>81</v>
+      </c>
+      <c r="E8" s="4">
+        <v>29</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>90</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>90</v>
+      </c>
+      <c r="D10">
+        <v>58</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>71</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>28</v>
+      </c>
+      <c r="F11" s="5">
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="C12">
+        <v>71</v>
+      </c>
+      <c r="D12">
+        <v>104</v>
+      </c>
+      <c r="E12">
+        <v>28</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>90</v>
+      </c>
+      <c r="D13">
+        <v>118</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>17</v>
+      </c>
+      <c r="G13">
+        <f>SUM(C13:F13)</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>71</v>
+      </c>
+      <c r="D14">
+        <v>104</v>
+      </c>
+      <c r="E14">
+        <v>32</v>
+      </c>
+      <c r="F14" s="5">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>90</v>
+      </c>
+      <c r="D15">
+        <v>154</v>
+      </c>
+      <c r="E15">
+        <v>26</v>
+      </c>
+      <c r="F15" s="5">
+        <v>30</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>90</v>
+      </c>
+      <c r="D16">
+        <v>157</v>
+      </c>
+      <c r="E16">
+        <v>23</v>
+      </c>
+      <c r="F16" s="5">
+        <v>30</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>90</v>
+      </c>
+      <c r="D17">
+        <v>151</v>
+      </c>
+      <c r="E17">
+        <v>29</v>
+      </c>
+      <c r="F17" s="5">
+        <v>30</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>90</v>
+      </c>
+      <c r="D18">
+        <v>172</v>
+      </c>
+      <c r="E18">
+        <v>25</v>
+      </c>
+      <c r="F18" s="5">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>90</v>
+      </c>
+      <c r="D19">
+        <v>150</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19" s="5">
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>90</v>
+      </c>
+      <c r="D20">
+        <v>155</v>
+      </c>
+      <c r="E20">
+        <v>28</v>
+      </c>
+      <c r="F20">
+        <v>27</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>90</v>
+      </c>
+      <c r="D21">
+        <v>164</v>
+      </c>
+      <c r="E21">
+        <v>23</v>
+      </c>
+      <c r="F21" s="5">
+        <v>23</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="C22" s="4">
+        <v>90</v>
+      </c>
+      <c r="D22" s="4">
+        <v>142</v>
+      </c>
+      <c r="E22">
+        <v>40</v>
+      </c>
+      <c r="F22" s="6">
         <v>28</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>58</v>
+      <c r="G22">
+        <f>SUM(C22:F22)</f>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F22">
+    <sortState ref="A2:J27">
+      <sortCondition ref="B1:B27"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
